--- a/data/trans_dic/P1803-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1803-Edad-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_dic/P1803-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1803-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +544,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,12 +666,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -627,6 +682,36 @@
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0; 0,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>3,28; 7,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>2,01; 9,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0; 0,45</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 7,24</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 8,88</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,22</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 6,77</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 7,42</t>
         </is>
       </c>
     </row>
@@ -691,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -707,6 +822,36 @@
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,12%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10,47%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,27</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,29</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2,99; 6,69</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4,78; 11,36</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,34</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,42</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,17</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4,93; 9,35</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7,7; 14,11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,52; 7,32</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7,18; 11,72</t>
         </is>
       </c>
     </row>
@@ -771,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -787,6 +962,36 @@
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10,65%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11,48%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>4,23; 8,23</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9,36; 15,14</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,29</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,23</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,29</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3,15; 6,54</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8,51; 13,05</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>0; 0,15</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 6,61</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9,77; 13,47</t>
         </is>
       </c>
     </row>
@@ -851,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -867,6 +1102,36 @@
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13,82%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,18; 6,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>9,62; 38,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,36</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3,72; 7,31</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9,04; 12,76</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,18</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 6,53</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10,2; 24,3</t>
         </is>
       </c>
     </row>
@@ -931,12 +1226,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -947,6 +1242,36 @@
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12,98%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,35%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>2,98; 7,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,8; 10,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0; 0,47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 9,18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10,96; 14,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,24</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 7,32</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9,03; 12,03</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1027,6 +1382,36 @@
       <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>1,36; 3,69</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 6,33</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,29</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0; 0,28</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3,69; 7,21</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 9,14</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,16</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,16</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 5,21</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5,04; 7,5</t>
         </is>
       </c>
     </row>
@@ -1091,12 +1506,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,6 +1522,36 @@
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9,59%</t>
         </is>
       </c>
     </row>
@@ -1129,22 +1574,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>3,9; 5,33</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7,78; 14,53</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 6,29</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8,54; 10,48</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,03</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4,54; 5,64</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8,63; 11,79</t>
         </is>
       </c>
     </row>
@@ -1158,15 +1633,15 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1803-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1803-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,29 +671,29 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>4,9%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,81%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>4,7%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 9,28</t>
+          <t>1,94; 9,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 8,88</t>
+          <t>2,37; 9,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,42</t>
+          <t>2,77; 7,89</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>9,02%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 11,36</t>
+          <t>4,98; 11,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 14,11</t>
+          <t>6,07; 13,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 11,72</t>
+          <t>6,68; 11,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,97%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,36; 15,14</t>
+          <t>9,87; 15,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 13,05</t>
+          <t>8,8; 13,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,77; 13,47</t>
+          <t>10,25; 14,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>35,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>24,41%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,62; 38,34</t>
+          <t>9,87; 72,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,04; 12,76</t>
+          <t>8,67; 12,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,2; 24,3</t>
+          <t>10,16; 52,46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,64%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,8; 10,05</t>
+          <t>6,1; 10,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,96; 14,94</t>
+          <t>11,14; 15,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,03; 12,03</t>
+          <t>9,28; 12,32</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1386,12 +1386,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,88%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,69</t>
+          <t>0,89; 3,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,33</t>
+          <t>4,54; 8,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>0; 0,56</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4,6; 10,42</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 11,46</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3,69; 7,21</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>5,34; 9,14</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,0; 5,21</t>
+          <t>3,1; 6,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,04; 7,5</t>
+          <t>3,57; 9,32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>5,15%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 0,87</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,86</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 4,86</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 5,28</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,66</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 6,25</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 8,29</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,38</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 4,98</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 6,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>3,9; 5,33</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>7,78; 14,53</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8,04; 34,04</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>4,79; 6,29</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>8,54; 10,48</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7,72; 10,46</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>4,54; 5,64</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>8,63; 11,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>8,69; 21,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1803-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1803-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 7,86</t>
+          <t>3,19; 7,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,49</t>
+          <t>2,2; 9,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,24</t>
+          <t>2,99; 7,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 9,29</t>
+          <t>2,58; 8,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,77</t>
+          <t>3,62; 6,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,89</t>
+          <t>2,8; 8,25</t>
         </is>
       </c>
     </row>
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,69</t>
+          <t>2,97; 6,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 11,88</t>
+          <t>5,07; 12,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 9,35</t>
+          <t>5,3; 9,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 13,46</t>
+          <t>6,0; 13,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,32</t>
+          <t>4,56; 7,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,68</t>
+          <t>6,62; 11,47</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,23</t>
+          <t>4,35; 8,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,87; 15,84</t>
+          <t>9,9; 16,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,54</t>
+          <t>3,06; 6,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 13,44</t>
+          <t>8,78; 13,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 6,61</t>
+          <t>4,16; 6,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,25; 14,22</t>
+          <t>10,09; 13,88</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,75</t>
+          <t>3,14; 6,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,87; 72,06</t>
+          <t>9,96; 70,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,31</t>
+          <t>3,75; 7,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 12,72</t>
+          <t>8,62; 12,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,53</t>
+          <t>3,85; 6,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,16; 52,46</t>
+          <t>10,33; 54,88</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,2</t>
+          <t>2,91; 6,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 10,47</t>
+          <t>6,12; 10,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,18</t>
+          <t>4,15; 9,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,14; 15,24</t>
+          <t>11,32; 15,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1335,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,32</t>
+          <t>4,01; 7,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,28; 12,32</t>
+          <t>9,3; 12,44</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1435,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,97</t>
+          <t>0,88; 3,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,54; 8,79</t>
+          <t>4,72; 8,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1455,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,6; 10,42</t>
+          <t>4,63; 10,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,9; 11,46</t>
+          <t>2,96; 11,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1475,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,56</t>
+          <t>3,34; 6,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,57; 9,32</t>
+          <t>3,64; 9,35</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,86</t>
+          <t>1,26; 4,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,28</t>
+          <t>1,72; 5,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1595,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,25</t>
+          <t>2,16; 6,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,29</t>
+          <t>4,99; 8,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,98</t>
+          <t>2,01; 4,81</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,57</t>
+          <t>4,05; 6,46</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1715,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,33</t>
+          <t>3,93; 5,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,04; 34,04</t>
+          <t>8,0; 34,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1734,12 +1735,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,79; 6,29</t>
+          <t>4,68; 6,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,72; 10,46</t>
+          <t>7,39; 10,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1754,12 +1755,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,54; 5,64</t>
+          <t>4,53; 5,64</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,69; 21,74</t>
+          <t>8,72; 23,43</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Poblaciónque en los últimos 12 meses han visitado un fisioterapeuta</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21981</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19376</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19051</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15334</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>41032</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>34710</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1951</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13362; 33218</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8795; 39122</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1832</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11849; 28237</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8090; 27922</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1867</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1956</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>29538; 56293</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19997; 58820</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26576</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>33534</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>40138</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>50801</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>66714</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>84335</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1975</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>17560; 38016</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21493; 51249</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2048</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>29890; 54717</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>30708; 68110</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>52644; 84442</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>61937; 107295</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>40137</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>69512</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29776</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>59628</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>69913</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>129140</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1997</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2008</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29079; 54292</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>53122; 85829</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2010</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20233; 43591</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>47638; 73850</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2028</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>55377; 90354</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>108892; 149755</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>30971</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>314059</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34129</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>76588</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>65101</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>390647</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2055</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2149</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20315; 43552</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>88402; 629590</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2191</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>24362; 47702</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>61482; 91085</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2172</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>49827; 82739</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>165426; 878511</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22291</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>45456</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>31259</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>72436</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>53551</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>117893</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1889</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2092</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13896; 33031</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>34369; 58827</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1953</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2112</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20609; 45079</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>61893; 82875</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2106</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>39120; 69397</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>103087; 137793</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6866</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>23682</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>26327</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>43495</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>33192</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>67177</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1847</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2101</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2953; 13245</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17363; 31990</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>17504; 39485</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>18013; 70111</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1808</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2033</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>23768; 47625</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>35521; 91281</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>6683</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>8888</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>15026</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>27609</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>21709</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>36497</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1822</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2150</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3242; 12779</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4850; 15025</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2202</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2127</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8640; 26176</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>21221; 35275</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2141</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>13202; 31633</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>28700; 45743</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>155505</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>514507</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>195706</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>345891</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>351211</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>860399</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>133335; 183565</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>276931; 1179894</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>165924; 220710</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>270487; 381738</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>314203; 391236</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>621074; 1668026</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>